--- a/NformTester/NformTester/keywordscripts/TST769_VerfiyDeviceParametersNamesAndUnits.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST769_VerfiyDeviceParametersNamesAndUnits.xlsx
@@ -3791,55 +3791,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>;Verify that: 'Output voltage' and ' Bypass Voltage' device parameters getting displayed three times with the same 'Units' for 'Liebert Series 300/WebCard' and 'Liebert Nx' device types.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Output voltage"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Output voltage L2"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Output voltage L3"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify also other device types:-'Liebert Series 300/WebCard' and 'Liebert Nx',Liebert GXT UPS/WebCard,Liebert PSI RT3 device types</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bypass voltage"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bypass voltage L2"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bypass voltage L3"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>"SingleAuto"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>126.4.200.127</t>
+    <t>$SingleAuto_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"UPS_126.4.200.127"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that: 'Output voltage' and ' Bypass Voltage' device parameters getting displayed three times with the same 'Units' for 'Liebert Series 300/WebCard' and 'Liebert Nx' device types.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Output voltage"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Output voltage L2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Output voltage L3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify also other device types:-'Liebert Series 300/WebCard' and 'Liebert Nx',Liebert GXT UPS/WebCard,Liebert PSI RT3 device types</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bypass voltage"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bypass voltage L2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bypass voltage L3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>$SinAuto_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4368,7 +4368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4599,7 +4601,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -4615,10 +4617,10 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4730,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4806,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
@@ -4841,7 +4843,7 @@
         <v>830</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="5"/>
@@ -4872,7 +4874,7 @@
         <v>830</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -4903,7 +4905,7 @@
         <v>830</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -4936,7 +4938,7 @@
         <v>830</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="5"/>
@@ -4967,7 +4969,7 @@
         <v>830</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -4998,7 +5000,7 @@
         <v>830</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5038,7 +5040,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>836</v>
@@ -5061,7 +5063,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
@@ -5080,7 +5082,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>836</v>

--- a/NformTester/NformTester/keywordscripts/TST769_VerfiyDeviceParametersNamesAndUnits.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST769_VerfiyDeviceParametersNamesAndUnits.xlsx
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7556" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7546" uniqueCount="850">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3795,18 +3795,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Output voltage"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Output voltage L2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Output voltage L3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3815,31 +3803,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Bypass voltage"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bypass voltage L2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bypass voltage L3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"SingleAuto"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SingleAuto_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SinAuto_0$</t>
+    <t>$SNMP_SingleAuto_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SinAuto_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Output Voltage RMS A-B"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Output Voltage RMS B-C"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Output Voltage RMS C-A"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bypass Input Voltage RMS A-B"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4368,13 +4360,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
@@ -4551,7 +4543,7 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41129</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4576,7 +4568,7 @@
         <v>772</v>
       </c>
       <c r="B7" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4598,11 +4590,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>848</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4617,10 +4607,10 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4631,11 +4621,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4659,8 +4647,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4680,10 +4672,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4710,7 +4700,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4732,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4743,7 +4733,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4772,7 +4762,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4801,7 +4791,7 @@
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4824,7 +4814,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4843,7 +4833,7 @@
         <v>830</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="5"/>
@@ -4854,10 +4844,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>781</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4874,7 +4864,7 @@
         <v>830</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -4887,7 +4877,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4905,7 +4895,7 @@
         <v>830</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -4916,11 +4906,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>783</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4938,7 +4926,7 @@
         <v>830</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="5"/>
@@ -4950,9 +4938,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>783</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4963,14 +4953,12 @@
         <v>574</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>575</v>
+        <v>95</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>846</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4981,27 +4969,23 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>847</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5010,22 +4994,20 @@
       <c r="N21" s="7"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D22" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="5"/>
@@ -5040,13 +5022,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>836</v>
       </c>
       <c r="F23" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="11"/>
@@ -5063,13 +5045,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>844</v>
+        <v>793</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -5082,15 +5064,17 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="5"/>
@@ -5100,18 +5084,24 @@
       <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5124,49 +5114,51 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>19</v>
+        <v>795</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>22</v>
+        <v>577</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="7"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="14.25">
       <c r="C28" s="5">
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>19</v>
+        <v>795</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="7"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15">
@@ -5176,18 +5168,16 @@
       <c r="D29" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>795</v>
+      <c r="E29" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>577</v>
+        <v>203</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>796</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" s="11"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -5196,7 +5186,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25">
+    <row r="30" spans="1:15">
       <c r="C30" s="5">
         <v>29</v>
       </c>
@@ -5207,73 +5197,29 @@
         <v>795</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="16"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="16"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="5">
-        <v>31</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N32">
+  <conditionalFormatting sqref="N2:N30">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5282,16 +5228,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30:G32 G2:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28:G30 G2:G26">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D28 D8:D9 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D26 D3:D4 D8:D9">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST769_VerfiyDeviceParametersNamesAndUnits.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST769_VerfiyDeviceParametersNamesAndUnits.xlsx
@@ -3819,19 +3819,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"System Output Voltage RMS A-B"</t>
+    <t>"System Output Voltage RMS A-N"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"System Output Voltage RMS B-C"</t>
+    <t>"System Output Power"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"System Output Voltage RMS C-A"</t>
+    <t>"System Output Apparent Power"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Bypass Input Voltage RMS A-B"</t>
+    <t>"Bypass Input Voltage RMS A-N"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4361,7 +4361,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
